--- a/public/workbooks/workbook.xlsx
+++ b/public/workbooks/workbook.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Customer Relationship Management System</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>asdads</t>
+  </si>
+  <si>
+    <t>tyutu</t>
+  </si>
+  <si>
+    <t>jhjkhkjh</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>UPI</t>
   </si>
 </sst>
 </file>
